--- a/HSBC/HSBC.xlsx
+++ b/HSBC/HSBC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20535" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -730,7 +730,7 @@
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
